--- a/Testdata/TC_88.xlsx
+++ b/Testdata/TC_88.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>GzQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb1Qoih1vAEvkkKEkgyRjq28GMPdkbTVcpbd2ZXEN/chMODaBYo6BpK2aR2gaBCgsR/SwnWC9r8Epuw89S/0zMxeebG5rhvYAA0D5pzbnDlz5pxvFmP03sXAVc6IzxyPXinpK1pJIdTybIceXymFwVFZr5beM9HWhUXcq9jHAxKAsAJalG1eMOdK6SQIhpuqen5+vnJeWfH8Y9XQNF29sdvpWidkgMsOZQGmFiklWvartUomatqDXRJgGwdYal4ptbvtlSZxrBbQdjHFx8RfaYTMoYSxLRo4gUMY1/QJDkiztfuhXJhprFRXdKRO0VPJRui4tpTLSUp6JAfTkp4zIKah6bWybpS19Z6ubVa0TWNtxaiufRQrJoKog1nQJf6ZYwlCN8CDoVDXDW1d1yqasYbUmUJgKw2AifZd+4CcOYzYTeK6rFBE1GgD61YAqy4WTA2pGd3I0Ou7sOPj4UnPCVxSVH3b84kFgXqtuffI+b4fxa837AC3d+L4waiFR4VtXWPE3x/yaBRTNVHLo0HdJX5wbQibSmzYc2CYgR8SpM5hpkoth1nw26Ehsc0j7LKsUo6Jrnv+KRtii+zBgVW5jXPqetiGzAocFjhWOukUA131vSFYhMkbnmtvg9VIeAYjsdymEGI+bcPzTlPvZjGRyAGRDbCnAxzE4lN01D3xzvepO+qGfWb5Tp/YrUYsPZOH+MmLtJshC7wBeJGSkKRlKCP4AydtkoxaxHIG2L3qQhCZWQErOQKqh4F35ARNzw0HlMU+TVDRdVhRj1wkK0zGaB82l/Kge7RNY3kZ5pmsvMKBd57MOc0QQciQ68yKt3uaMSncAlq8fdMcsSN8lduOC40guxcZaj4ruieEBDNTQnIQr3nbvLWYjdFeOOjD8erDGTsTszKkpnwEeQq5Dn6ZGrSLsvjb07RN8Rf8SNhoi9rz5WImgukyc5k68CZICNbkNlxMT4F63QlO9urxWmZwkIzAXPlpHoKTO3TxSJCTKGVpqE0tN7SJLAhteiRSlPsmN3UuG02ROnDGTYTpqDcaQgFmzmYAP66UoCVvssCHpl8yLS+kgT/ilQOpkeirdFjYp2IC7C6sc+STX4aANUbbIbWanr34bLaMzjXqBIt76IW+LIeLq4jo8coYshbhNUYU/YX1rSJrYn4h8QElA4861uLRhiBz7+3XWAiLT9XCGkSer4XlXejrsu3xs76wmg9AERpdoWnqjHmWI5I1Oh52Rl+dc2Ra5AiHLoC0AFrscVJ7J8mozk4nZbIkdM134wpocgjMAANb9mDFAvDAcd6K5Q04QQXoeb2L1Kw8R0AW2aLHHUyPQ8AYSV2ZpCf1l/fHno8p48tJIMVEKZ4thOI6JaGOKYvXfigSQRYvD7hInZBDPTIYej52dyEwznaUdhFeAiiyi4OTaAS9zSVWHGQ1VU208p7Fjr9KTDQpuQx+4KMyOUEUQnwtEm2nMikN8VXuwrF0m9h1+r6sqnErn8WDDUvBYVx/+eIKAsV4D+DGBd33AzLiMDwdRHSRsnrMkAnMC6nZPVitGWvaehWQDR8jseIPsRsSpW7bxFYcqrSpDajHB/Qj4xH1nJeLZoXQdlzBxSR18CRPyQsAkjh2oEFMCyacVME8JNh3RxlBuYiOZ4Hci4d3nz35bPzF5+M7fx7f+k6uQLJQD/ddIqbvNWo1rbIK+ZKQEA+SKiCuHVqBoB0eCmSbjFF0ExOD5la7udNpiLqQEGN12RpUfskbeWE67EqXxURia9R4R6WI2YvrTDTOcTOtxuSXrjOSl87y5ynKWDz/9q/Pv/3bXO0oYClm0jdqq+JW+wpIBTf16pRcAqk6uVrO77qrZW2tbBgZ4QkZdCALeRKntm1WdG1DM6qantRkO8nRWUKTrMhSDx+rE3qS1JQwJ0mB7DhmijTvERYkbJn4mYEM4uXff/3i0Sc5qSi6ESVvBZwTcIRPpsYDYXrvoKd0968dNLeU3laX50nKy8hJ4y8RjmZPTk8uqSgNsfszBZo0NCWlBDebkuIdKQRbJ8oIzl3m1OWSbRZVTvSaJie93PG9cCh3JKOQUmdIJrVjpsaMyiJ4Ip5TJSZlzRCXvo7/+c0shWghrRSYmp0PDpQBTfJS0FCOI0kZfnRqP/3Xsye3Lx88+uH23fHHj8f3Ho7vfXH56H7OVDRhcs+HhIdjlR0m+Q+1L2ogExR0vSuieqrdzDSMiMhvRlc9hwbMNCriUhSNEKjq3Jr4F7UH0MOEYRE4oE9Q0PuYbV0E0Qk395CaJ4CfQwzt00svkwlBFvM0wD/88fPL339z+eDxi9tfje98Ob774Pm3f3rx9UN5/C4/eXx57+uo3E92BOELv6JKVKeIDx6Wwo+lwpux8v2t3ynUCxTAEEooStP3tz7NGOOOCrSRWgaMljiSd2FKNKvM9ZSMK4kPOb1ERXb0Ju9llUQi6mbe0LHSST4qc1P8AArGT9q9csiI4gE8+imsJC+cKi+qF6nI3np1XTN0I+JKb/gS+phlQr/jen3sKjFDfFGYEMlpvVwhlRXz7XT2G/VOKiKd2Pdt4vM0lD9QjBF5b2mzeBSnWoYCXEByVujyj0BTYtOsxHKmnqnR15QjQE4QztnfHnISqBn6vsRBNPoK3w2HgG7jb27z+eI7ZAbQ7knwmYW46bjdyvNhnOFCR8yzOUHwRY2KWLJetRn/cCPx6R4PTToEXu7bJYQj+tAuIdeZA1ui8rqz5fueP7P4pJxYbBegMVQUNY14IiP2VMJoO92rmBAXvDcFp9fWcnB6xzsLlANyRihA5bLSwxfKzzlSdmCZ0AzhJ9zlyCx0vajm2wG2L+//e/z0D5f3/zH++C/l51/+Znzn4X++++zZk6+ePX0qqUv8/abw90ZtMfyt6z8O/tbXF8DfUmiJv5f4+23C3we7jTn4O+a8FH/z4vb4t+Mnv/ofYbc+H3brNzONZRp266tL2L2E3e8U7NaXsPtdgd0Txectht3r+lzY/Spw/TZC6CVYflNgeU1bECwbPxJYri0ClmtLsLwEy0uwPBMsG/PBsnEz0w6mwXJ1+Y16CZbfLbBsLMHyuwKWJ4rP/wUsq+ljkaQuei3ikqDwS+lYe9c7e21d2Puiqm2279pRMIu9d0nCkhrIPhfniVLUmbrvA4Ti70sLv+/uOPS0XWz15oaxblh2pWZp1SpZN7BlVDSbWDWLaEe1PmSNNMqfP3ETA8DZ/PFQsUnATF49feh1gOlxQWsywEKRP4aCSEWPxbcdnwU3eJuMfknKYUI5lLj5Bn8WLX+I8aG5qksCCKhZ62rOzbigBPK/Enhuxxk4BV9IaXHVyRuBfR8OJbAsuoPQ8PbIBcDejAUo1f1fQDOTTwqLWJPHCCp8os+f8TLn+CQo6phmaGTdsirlNdI3yquVtY1yrWqslo8sHZMNo6qv1Vb5I+DIONQzh5wXnESNNyz9Lz7mfwE+zLKpGzQAAA==</t>
+          <t>fTUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb3oRqnjDURSUolQF4h0bOXFWO4OpamWs+zOriS+uQ+BAdcuUNQxkLRN6wBFgwCN/ZAWrh20/yUwZeepf6FnZvbKi8VV3EABaAjWzrnNmTNnzvl2MULvnfdc5RT7jHj0Rklf0EoKprbnEHp0oxQG3bK+UnrPRJvnNnb3Ld/q4QCEFdCibP2ckRul4yDor6vq2dnZwtnigucfqYam6ertnWbLPsY9q0woCyxq41Ki5VyuVTJRzent4MByrMCSmjdKjVZjoYaJXQfajkWtI+wvVENGKGZskwYkIJhxTR9bAa7Vdz6QCzONhZUFHalj9FSyGhLXkXI5SUmP5GBa3CY9bBqaoZW1StnQ2vrqumGsaxC5RePDWDERRE2LBS3snxJbEFqB1esLda1iaPqqAf8hdaIQ2EoDYKI91znAp4Rhp4ZdlxWKiBpt4IYdwKqLBVNDakY3MnR1F7Z9q3/cJoGLi6pveT62IVBXmnsXn+35Ufza/SZw28fEDwZ1a1DY1k2G/b0+j0YxVRPVPRpsuNgPbvZhU7EDew4MM/BDjNQpzFSpTpgNz4SG2DG7lsuySjkmuuX5J6xv2XgXDqzKbZxR17McyKyAsIDY6aRjDLTve32wCJNXPdfZAquR8ARGYrlBIcR82qrnnaTeTWIikQMiG2BPe1YQi4/RUevYO9uj7qAVdpjtkw526tVYeiIP8ZMXaddCFng98CIlIUnLUAbwD07aKBnVsU16lrvvQhCZuQhWcgS0EQZelwQ1zw17lMU+jVDRLVhRG58nK0zGaA82l/Kge7RBY3kZ5omsvMKBd5bMOc4QQciQN5gdb/c4Y1S4DrR4+8Y5Ykf4KreIC40guxcZaj4rWscYBxNTQnIQr3lbvLWY1cFu2OvA8erAGTsVszKkpnwEeQq5Dn6ZGrSLsvhpa9q6+AE/EjbapM50uZiJYLrMXKYOvBESgjW5VdeiJ0C9RYLj3Y14LRM4SEZgqvw4D8HJ7bvWQJCTKGVpqEFtN3SwLAgN2hUpyn2TmzqVjcZITTjjJrLooD3oQwFmZD2AhxslaMnrLPCh6ZdM2wtp4A945UBqJHqZDgs7VExguTPrdH38qxCwxmArpHbNc2afzZHRuUlJMLuHXujLcji7ioger4whq2NeY0TRn1nfLrIm5hcS71Hc8yixZ482BJl771xhISw+VTNrYHm+ZpZ3oa/LtsfP+sxqPgBFaHSFptlgzLOJSNboeDgZfXXKkanjrhW6ANICaLFHSe0dJaMNdjIqkyWhm74bV0CTQ2AGGNh2egs2gAeO8xZsr8cJKkDPWy2kZuU5ArLxJj1qWvQoBIyR1JVRelJ/eX9s+xZlfDkJpBgpxZOFUFynJNQxZfHaC0UiyOLlARepI3KojXt9z7fcHQgM2YrSLsJLAEV2rOA4GkFvc7EdB1lNVROtvGex45eJiSYll8EPfFQmR4hCiK9Fou1UJqUhvsodOJZuzXJJx5dVNW7lk3iwYSk4jOsvX1xBoBjvAbxxQfd9Hw84DE8HEV2krB4zZALzQmq2DpYqxrK2vAzIho+RWPG2dxoogIExYESlrLStc+XnSoM65JQ4oeXCIyQfrEyGJ2pBhTSzOmgrru/ChQ3wM0/JCwDOOCLQPsYFE06qYB5iy3cHGUG5xKZng9zFo/8MX/zx4tE/hx/9tfz6i98O7z/57zefvnr+5asXLyRVrlFKo7bVcbHwqF2tVLTFJUiwhIR4VFWBiZ3QDgTt8FBA4WSMolc3MahtNmrbzaooJAkxVpe9ROVvhQMvTIctuQoxkdhLNU4BKWK248IUjXPcTG8y+VvaKc5LZ/nTFGUsXr/82+uXf5+qHQUsBVn62lqlrBuXYjB4ydXH5BIM1swVfy68VNaWy4aRER6RQQey8idxajjmoq6twRs1f59OaHEWTxIaZUWW2taROqInSTWJi5IUyI5jpsj8NmZBwpZnITOIcvQfv3nz9OOcVBTdiJK3As4J/MInU+OBML170FZaezcPaptKe7PF8yTlZeSk8bcIR7MnByqXVJTCKf+ZAl0duphSglehkuJ1FWzZx8oAjmLmIOaSbRJVTnRFk6Nebvte2Jc7klFIqRMkk3IyUWNCsRE8Ec+xqpOyJohLX4f/+nqSQrSQeopkzYOdqtKjSV4KGspxJCnDj07tJ/9+9fweL27Pfjd8/uuchWie5HsA5DmcpuwwSXsoeVGjGaGgWy0RzBPtTqaxRET+BrXvERowU18SL0/RCIGqzq2J36jRg14nDIt4AX2Egn5hsc3zIDrY5i5S8wTws29Bm/XSl86EIGt4Gtfv/vTZxR++vnj87M29L4f3vxg+ePz65Z/ffPVEnrqLj59dPPwqqvKjjUD4wl9lJfpTxIcRW+GnUeFNW/n27u8V6gUKYA0lFBXp27ufZIxxRwUqSS0DlkscybswJppV5npKxpXEh5xeoiI7f423sMVEImpiXp/Y6SQflrkpfu4E4yeNdjlkWPEARv0UVpIXTpVn1YtUZEvdX9UM3Yi40hu+hI7FMqHfdr0OwIiYIb48jIjktN6ukMqK+babe9WNZioindjzHezzNJQPqMFiNBmnV4YCXEB5dujyD0RjYuMsFD9lSpcafWnpbji85E3+LpGTQLXQ9yUKotEX+lbYB+Qbf4+bzhffKDNgd1cC0yz8TceNep4P4wwXml+ezQmCL8pRxJKlqcH4Rx2JXXd5aNIh8HLfNSEc0Ud4ia4ASWJf5bVm0/c9f2LBSTmx2A7AZqgiahrxREblU0qI7aR7FRPiIveuoPaqPhVqXwaoryNsngPkdwWQl7UZAbLxAwHkyiwAuTIHyHOAPAfIEwGyPh0g63cy7WAcIK8szgHyHCD/qACyPgfI1xkgjxSc6wyQV3IA+QPLDbEC+4gdhVD+LTlk0MYnYeWpotcDNr958uDV80+Hn382vP+X4d1v5sj5XSHnytJsyFlb+WGQs7EyA3KWQnPkPEfO1wk5N98/mIKcY85bkfPF46ff3Xsw/OjZ8OGT4cPPL54++p4Q2pgOoY07mYYxDqGNOYSeQ+gfF4Q25hD6OkPokYLzf4HQanoRJKmFXh27OCh8CzrW3vFOr6wLe19UtcH2XCcKZrG7LElYUgPZq+A8UYo6s+H7gJ/43dHCd7ebhJ40iq3eXDWctRWAo5auL3eNTsfQVyuOba9gx8YV3QYEKYzyq03cRA9ANr8YVGwSQI159fQS14FFjwpakwEWivyiE0RKHMiosCdjtEV8FtzmnTJ6kpTDhHIoMfRtfgNaPojxobkU/dkCCKjZydSc13F9CeRfDXhuk/RIwctQWlyE8kYgDfp9CTKLbij0vF18DhA4YwGqdeeX0M/k7cEi1uSpgiKf6Me2WmGnsDk1Vt4HPk+sq2lvOoDLrq4t7uAT93s4IJDXVU00KCNHx0HRfTXW1hbxCjbKRte2y0swKEM37pQdq7uma1p30Vk2+HXpyDh0B4LPCk7Cewph8IJRXE8d+SMq838bZZwPfTUAAA==</t>
         </r>
       </text>
     </comment>
@@ -418,17 +418,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Govt Revenue - Tax ; Individual Income</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Govt Revenue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>Value Added in Industry</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Govt Revenue</t>
         </is>
       </c>
     </row>
@@ -494,17 +494,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>LKR mn</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
         </is>
       </c>
     </row>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B8" s="3">
+        <v>310901701</v>
+      </c>
+      <c r="C8" s="3">
+        <v>310901801</v>
+      </c>
+      <c r="D8" s="3">
         <v>310902601</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901801</v>
       </c>
     </row>
     <row r="9">
@@ -576,17 +576,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>SR4825055</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>SR4825071</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>SR4825076</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825055</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825071</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" s="4">
+        <v>36130</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18598</v>
+      </c>
+      <c r="D12" s="4">
         <v>31017</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18598</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" s="4">
+        <v>40878</v>
+      </c>
+      <c r="C13" s="4">
+        <v>41244</v>
+      </c>
+      <c r="D13" s="4">
         <v>39052</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="D13" s="4">
-        <v>41244</v>
       </c>
     </row>
     <row r="14">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" s="2">
+        <v>1319.535</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4951998.2</v>
+      </c>
+      <c r="D17" s="2">
         <v>201892.7</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1319.535</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4951998.2</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" s="2">
+        <v>187156.59805</v>
+      </c>
+      <c r="C18" s="2">
+        <v>8870140225312.178</v>
+      </c>
+      <c r="D18" s="2">
         <v>4866077434.233333</v>
-      </c>
-      <c r="C18" s="2">
-        <v>187156.59805</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8870140225312.178</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" s="2">
+        <v>432.6159937519648</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2978278.063799983</v>
+      </c>
+      <c r="D19" s="2">
         <v>69757.27513480821</v>
-      </c>
-      <c r="C19" s="2">
-        <v>432.6159937519648</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2978278.063799983</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" s="2">
+        <v>0.01561590289697475</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.5088159326089573</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.5012749293714148</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.0156159028969747</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.5088159326089575</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" s="2">
+        <v>-1.075751539480831</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-0.4977563153662574</v>
+      </c>
+      <c r="D21" s="2">
         <v>-0.7795762174608876</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-1.075751539480832</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-0.497756315366257</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" s="2">
+        <v>0.3278548835400083</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.6014295529832752</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.3455165795237183</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.3278548835400083</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.6014295529832752</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" s="2">
+        <v>727.63</v>
+      </c>
+      <c r="C23" s="2">
+        <v>866666</v>
+      </c>
+      <c r="D23" s="2">
         <v>112011</v>
-      </c>
-      <c r="C23" s="2">
-        <v>727.63</v>
-      </c>
-      <c r="D23" s="2">
-        <v>866666</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" s="2">
+        <v>2026.83</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10374001</v>
+      </c>
+      <c r="D24" s="2">
         <v>323560</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2026.83</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10374001</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" s="2">
+        <v>1359.255</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4504099</v>
+      </c>
+      <c r="D25" s="2">
         <v>189310.5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1359.255</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4504099</v>
       </c>
     </row>
     <row r="26">
@@ -842,76 +842,76 @@
       <c r="A27" s="7">
         <v>35765</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
         <v>112011</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
         <v>36130</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <v>129477</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
         <v>36495</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
         <v>143412</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
         <v>36861</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
         <v>167493</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
         <v>37226</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
         <v>179558</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
         <v>37591</v>
       </c>
       <c r="B32" s="8">
+        <v>767.73</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
         <v>199063</v>
       </c>
-      <c r="C32" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="D32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
         <v>37956</v>
       </c>
       <c r="B33" s="8">
+        <v>727.63</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2171525</v>
+      </c>
+      <c r="D33" s="8">
         <v>221016</v>
-      </c>
-      <c r="C33" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="D33" s="8">
-        <v>2171525</v>
       </c>
     </row>
     <row r="34">
@@ -919,13 +919,13 @@
         <v>38322</v>
       </c>
       <c r="B34" s="8">
+        <v>922.91</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2639647</v>
+      </c>
+      <c r="D34" s="8">
         <v>256572</v>
-      </c>
-      <c r="C34" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="D34" s="8">
-        <v>2639647</v>
       </c>
     </row>
     <row r="35">
@@ -933,13 +933,13 @@
         <v>38687</v>
       </c>
       <c r="B35" s="8">
+        <v>1126.49</v>
+      </c>
+      <c r="C35" s="8">
+        <v>3164929</v>
+      </c>
+      <c r="D35" s="8">
         <v>286765</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="D35" s="8">
-        <v>3164929</v>
       </c>
     </row>
     <row r="36">
@@ -947,87 +947,142 @@
         <v>39052</v>
       </c>
       <c r="B36" s="8">
+        <v>1235.8</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3876020</v>
+      </c>
+      <c r="D36" s="8">
         <v>323560</v>
-      </c>
-      <c r="C36" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="D36" s="8">
-        <v>3876020</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7">
         <v>39417</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="8">
+        <v>1482.71</v>
+      </c>
       <c r="C37" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="D37" s="8">
         <v>5132178</v>
       </c>
+      <c r="D37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="7">
         <v>39783</v>
       </c>
-      <c r="B38" s="8"/>
+      <c r="B38" s="8">
+        <v>1598.61</v>
+      </c>
       <c r="C38" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="D38" s="8">
         <v>6133035</v>
       </c>
+      <c r="D38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="7">
         <v>40148</v>
       </c>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8">
+        <v>1639.54</v>
+      </c>
       <c r="C39" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="D39" s="8">
         <v>6851830</v>
       </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="7">
         <v>40513</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8">
+        <v>2026.83</v>
+      </c>
       <c r="C40" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="D40" s="8">
         <v>8310151</v>
       </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
         <v>40878</v>
       </c>
-      <c r="B41" s="8"/>
+      <c r="B41" s="8">
+        <v>1667.1</v>
+      </c>
       <c r="C41" s="8">
-        <v>1667.1</v>
-      </c>
-      <c r="D41" s="8">
         <v>10374001</v>
       </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="7">
         <v>41244</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8">
+      <c r="C42" s="8">
         <v>866666</v>
       </c>
+      <c r="D42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>42</EndRow>
+          <EndCol>4</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE68F4C4-778B-4348-A24B-2265122E71A4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_88.xlsx
+++ b/Testdata/TC_88.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>fTUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb3oRqnjDURSUolQF4h0bOXFWO4OpamWs+zOriS+uQ+BAdcuUNQxkLRN6wBFgwCN/ZAWrh20/yUwZeepf6FnZvbKi8VV3EABaAjWzrnNmTNnzvl2MULvnfdc5RT7jHj0Rklf0EoKprbnEHp0oxQG3bK+UnrPRJvnNnb3Ld/q4QCEFdCibP2ckRul4yDor6vq2dnZwtnigucfqYam6ertnWbLPsY9q0woCyxq41Ki5VyuVTJRzent4MByrMCSmjdKjVZjoYaJXQfajkWtI+wvVENGKGZskwYkIJhxTR9bAa7Vdz6QCzONhZUFHalj9FSyGhLXkXI5SUmP5GBa3CY9bBqaoZW1StnQ2vrqumGsaxC5RePDWDERRE2LBS3snxJbEFqB1esLda1iaPqqAf8hdaIQ2EoDYKI91znAp4Rhp4ZdlxWKiBpt4IYdwKqLBVNDakY3MnR1F7Z9q3/cJoGLi6pveT62IVBXmnsXn+35Ufza/SZw28fEDwZ1a1DY1k2G/b0+j0YxVRPVPRpsuNgPbvZhU7EDew4MM/BDjNQpzFSpTpgNz4SG2DG7lsuySjkmuuX5J6xv2XgXDqzKbZxR17McyKyAsIDY6aRjDLTve32wCJNXPdfZAquR8ARGYrlBIcR82qrnnaTeTWIikQMiG2BPe1YQi4/RUevYO9uj7qAVdpjtkw526tVYeiIP8ZMXaddCFng98CIlIUnLUAbwD07aKBnVsU16lrvvQhCZuQhWcgS0EQZelwQ1zw17lMU+jVDRLVhRG58nK0zGaA82l/Kge7RBY3kZ5omsvMKBd5bMOc4QQciQN5gdb/c4Y1S4DrR4+8Y5Ykf4KreIC40guxcZaj4rWscYBxNTQnIQr3lbvLWY1cFu2OvA8erAGTsVszKkpnwEeQq5Dn6ZGrSLsvhpa9q6+AE/EjbapM50uZiJYLrMXKYOvBESgjW5VdeiJ0C9RYLj3Y14LRM4SEZgqvw4D8HJ7bvWQJCTKGVpqEFtN3SwLAgN2hUpyn2TmzqVjcZITTjjJrLooD3oQwFmZD2AhxslaMnrLPCh6ZdM2wtp4A945UBqJHqZDgs7VExguTPrdH38qxCwxmArpHbNc2afzZHRuUlJMLuHXujLcji7ioger4whq2NeY0TRn1nfLrIm5hcS71Hc8yixZ482BJl771xhISw+VTNrYHm+ZpZ3oa/LtsfP+sxqPgBFaHSFptlgzLOJSNboeDgZfXXKkanjrhW6ANICaLFHSe0dJaMNdjIqkyWhm74bV0CTQ2AGGNh2egs2gAeO8xZsr8cJKkDPWy2kZuU5ArLxJj1qWvQoBIyR1JVRelJ/eX9s+xZlfDkJpBgpxZOFUFynJNQxZfHaC0UiyOLlARepI3KojXt9z7fcHQgM2YrSLsJLAEV2rOA4GkFvc7EdB1lNVROtvGex45eJiSYll8EPfFQmR4hCiK9Fou1UJqUhvsodOJZuzXJJx5dVNW7lk3iwYSk4jOsvX1xBoBjvAbxxQfd9Hw84DE8HEV2krB4zZALzQmq2DpYqxrK2vAzIho+RWPG2dxoogIExYESlrLStc+XnSoM65JQ4oeXCIyQfrEyGJ2pBhTSzOmgrru/ChQ3wM0/JCwDOOCLQPsYFE06qYB5iy3cHGUG5xKZng9zFo/8MX/zx4tE/hx/9tfz6i98O7z/57zefvnr+5asXLyRVrlFKo7bVcbHwqF2tVLTFJUiwhIR4VFWBiZ3QDgTt8FBA4WSMolc3MahtNmrbzaooJAkxVpe9ROVvhQMvTIctuQoxkdhLNU4BKWK248IUjXPcTG8y+VvaKc5LZ/nTFGUsXr/82+uXf5+qHQUsBVn62lqlrBuXYjB4ydXH5BIM1swVfy68VNaWy4aRER6RQQey8idxajjmoq6twRs1f59OaHEWTxIaZUWW2taROqInSTWJi5IUyI5jpsj8NmZBwpZnITOIcvQfv3nz9OOcVBTdiJK3As4J/MInU+OBML170FZaezcPaptKe7PF8yTlZeSk8bcIR7MnByqXVJTCKf+ZAl0duphSglehkuJ1FWzZx8oAjmLmIOaSbRJVTnRFk6Nebvte2Jc7klFIqRMkk3IyUWNCsRE8Ec+xqpOyJohLX4f/+nqSQrSQeopkzYOdqtKjSV4KGspxJCnDj07tJ/9+9fweL27Pfjd8/uuchWie5HsA5DmcpuwwSXsoeVGjGaGgWy0RzBPtTqaxRET+BrXvERowU18SL0/RCIGqzq2J36jRg14nDIt4AX2Egn5hsc3zIDrY5i5S8wTws29Bm/XSl86EIGt4Gtfv/vTZxR++vnj87M29L4f3vxg+ePz65Z/ffPVEnrqLj59dPPwqqvKjjUD4wl9lJfpTxIcRW+GnUeFNW/n27u8V6gUKYA0lFBXp27ufZIxxRwUqSS0DlkscybswJppV5npKxpXEh5xeoiI7f423sMVEImpiXp/Y6SQflrkpfu4E4yeNdjlkWPEARv0UVpIXTpVn1YtUZEvdX9UM3Yi40hu+hI7FMqHfdr0OwIiYIb48jIjktN6ukMqK+babe9WNZioindjzHezzNJQPqMFiNBmnV4YCXEB5dujyD0RjYuMsFD9lSpcafWnpbji85E3+LpGTQLXQ9yUKotEX+lbYB+Qbf4+bzhffKDNgd1cC0yz8TceNep4P4wwXml+ezQmCL8pRxJKlqcH4Rx2JXXd5aNIh8HLfNSEc0Ud4ia4ASWJf5bVm0/c9f2LBSTmx2A7AZqgiahrxREblU0qI7aR7FRPiIveuoPaqPhVqXwaoryNsngPkdwWQl7UZAbLxAwHkyiwAuTIHyHOAPAfIEwGyPh0g63cy7WAcIK8szgHyHCD/qACyPgfI1xkgjxSc6wyQV3IA+QPLDbEC+4gdhVD+LTlk0MYnYeWpotcDNr958uDV80+Hn382vP+X4d1v5sj5XSHnytJsyFlb+WGQs7EyA3KWQnPkPEfO1wk5N98/mIKcY85bkfPF46ff3Xsw/OjZ8OGT4cPPL54++p4Q2pgOoY07mYYxDqGNOYSeQ+gfF4Q25hD6OkPokYLzf4HQanoRJKmFXh27OCh8CzrW3vFOr6wLe19UtcH2XCcKZrG7LElYUgPZq+A8UYo6s+H7gJ/43dHCd7ebhJ40iq3eXDWctRWAo5auL3eNTsfQVyuOba9gx8YV3QYEKYzyq03cRA9ANr8YVGwSQI159fQS14FFjwpakwEWivyiE0RKHMiosCdjtEV8FtzmnTJ6kpTDhHIoMfRtfgNaPojxobkU/dkCCKjZydSc13F9CeRfDXhuk/RIwctQWlyE8kYgDfp9CTKLbij0vF18DhA4YwGqdeeX0M/k7cEi1uSpgiKf6Me2WmGnsDk1Vt4HPk+sq2lvOoDLrq4t7uAT93s4IJDXVU00KCNHx0HRfTXW1hbxCjbKRte2y0swKEM37pQdq7uma1p30Vk2+HXpyDh0B4LPCk7Cewph8IJRXE8d+SMq838bZZwPfTUAAA==</t>
+          <t>GzQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb1Qoih1vAEvkkKEkgyRjq28GMPdkbTVcpbd2ZXEN/chMODaBYo6BpK2aR2gaBCgsR/SwnWC9r8Epuw89S/0zMxeebG5rhvYAA0D5pzbnDlz5pxvFmP03sXAVc6IzxyPXinpK1pJIdTybIceXymFwVFZr5beM9HWhUXcq9jHAxKAsAJalG1eMOdK6SQIhpuqen5+vnJeWfH8Y9XQNF29sdvpWidkgMsOZQGmFiklWvartUomatqDXRJgGwdYal4ptbvtlSZxrBbQdjHFx8RfaYTMoYSxLRo4gUMY1/QJDkiztfuhXJhprFRXdKRO0VPJRui4tpTLSUp6JAfTkp4zIKah6bWybpS19Z6ubVa0TWNtxaiufRQrJoKog1nQJf6ZYwlCN8CDoVDXDW1d1yqasYbUmUJgKw2AifZd+4CcOYzYTeK6rFBE1GgD61YAqy4WTA2pGd3I0Ou7sOPj4UnPCVxSVH3b84kFgXqtuffI+b4fxa837AC3d+L4waiFR4VtXWPE3x/yaBRTNVHLo0HdJX5wbQibSmzYc2CYgR8SpM5hpkoth1nw26Ehsc0j7LKsUo6Jrnv+KRtii+zBgVW5jXPqetiGzAocFjhWOukUA131vSFYhMkbnmtvg9VIeAYjsdymEGI+bcPzTlPvZjGRyAGRDbCnAxzE4lN01D3xzvepO+qGfWb5Tp/YrUYsPZOH+MmLtJshC7wBeJGSkKRlKCP4AydtkoxaxHIG2L3qQhCZWQErOQKqh4F35ARNzw0HlMU+TVDRdVhRj1wkK0zGaB82l/Kge7RNY3kZ5pmsvMKBd57MOc0QQciQ68yKt3uaMSncAlq8fdMcsSN8lduOC40guxcZaj4ruieEBDNTQnIQr3nbvLWYjdFeOOjD8erDGTsTszKkpnwEeQq5Dn6ZGrSLsvjb07RN8Rf8SNhoi9rz5WImgukyc5k68CZICNbkNlxMT4F63QlO9urxWmZwkIzAXPlpHoKTO3TxSJCTKGVpqE0tN7SJLAhteiRSlPsmN3UuG02ROnDGTYTpqDcaQgFmzmYAP66UoCVvssCHpl8yLS+kgT/ilQOpkeirdFjYp2IC7C6sc+STX4aANUbbIbWanr34bLaMzjXqBIt76IW+LIeLq4jo8coYshbhNUYU/YX1rSJrYn4h8QElA4861uLRhiBz7+3XWAiLT9XCGkSer4XlXejrsu3xs76wmg9AERpdoWnqjHmWI5I1Oh52Rl+dc2Ra5AiHLoC0AFrscVJ7J8mozk4nZbIkdM134wpocgjMAANb9mDFAvDAcd6K5Q04QQXoeb2L1Kw8R0AW2aLHHUyPQ8AYSV2ZpCf1l/fHno8p48tJIMVEKZ4thOI6JaGOKYvXfigSQRYvD7hInZBDPTIYej52dyEwznaUdhFeAiiyi4OTaAS9zSVWHGQ1VU208p7Fjr9KTDQpuQx+4KMyOUEUQnwtEm2nMikN8VXuwrF0m9h1+r6sqnErn8WDDUvBYVx/+eIKAsV4D+DGBd33AzLiMDwdRHSRsnrMkAnMC6nZPVitGWvaehWQDR8jseIPsRsSpW7bxFYcqrSpDajHB/Qj4xH1nJeLZoXQdlzBxSR18CRPyQsAkjh2oEFMCyacVME8JNh3RxlBuYiOZ4Hci4d3nz35bPzF5+M7fx7f+k6uQLJQD/ddIqbvNWo1rbIK+ZKQEA+SKiCuHVqBoB0eCmSbjFF0ExOD5la7udNpiLqQEGN12RpUfskbeWE67EqXxURia9R4R6WI2YvrTDTOcTOtxuSXrjOSl87y5ynKWDz/9q/Pv/3bXO0oYClm0jdqq+JW+wpIBTf16pRcAqk6uVrO77qrZW2tbBgZ4QkZdCALeRKntm1WdG1DM6qantRkO8nRWUKTrMhSDx+rE3qS1JQwJ0mB7DhmijTvERYkbJn4mYEM4uXff/3i0Sc5qSi6ESVvBZwTcIRPpsYDYXrvoKd0968dNLeU3laX50nKy8hJ4y8RjmZPTk8uqSgNsfszBZo0NCWlBDebkuIdKQRbJ8oIzl3m1OWSbRZVTvSaJie93PG9cCh3JKOQUmdIJrVjpsaMyiJ4Ip5TJSZlzRCXvo7/+c0shWghrRSYmp0PDpQBTfJS0FCOI0kZfnRqP/3Xsye3Lx88+uH23fHHj8f3Ho7vfXH56H7OVDRhcs+HhIdjlR0m+Q+1L2ogExR0vSuieqrdzDSMiMhvRlc9hwbMNCriUhSNEKjq3Jr4F7UH0MOEYRE4oE9Q0PuYbV0E0Qk395CaJ4CfQwzt00svkwlBFvM0wD/88fPL339z+eDxi9tfje98Ob774Pm3f3rx9UN5/C4/eXx57+uo3E92BOELv6JKVKeIDx6Wwo+lwpux8v2t3ynUCxTAEEooStP3tz7NGOOOCrSRWgaMljiSd2FKNKvM9ZSMK4kPOb1ERXb0Ju9llUQi6mbe0LHSST4qc1P8AArGT9q9csiI4gE8+imsJC+cKi+qF6nI3np1XTN0I+JKb/gS+phlQr/jen3sKjFDfFGYEMlpvVwhlRXz7XT2G/VOKiKd2Pdt4vM0lD9QjBF5b2mzeBSnWoYCXEByVujyj0BTYtOsxHKmnqnR15QjQE4QztnfHnISqBn6vsRBNPoK3w2HgG7jb27z+eI7ZAbQ7knwmYW46bjdyvNhnOFCR8yzOUHwRY2KWLJetRn/cCPx6R4PTToEXu7bJYQj+tAuIdeZA1ui8rqz5fueP7P4pJxYbBegMVQUNY14IiP2VMJoO92rmBAXvDcFp9fWcnB6xzsLlANyRihA5bLSwxfKzzlSdmCZ0AzhJ9zlyCx0vajm2wG2L+//e/z0D5f3/zH++C/l51/+Znzn4X++++zZk6+ePX0qqUv8/abw90ZtMfyt6z8O/tbXF8DfUmiJv5f4+23C3we7jTn4O+a8FH/z4vb4t+Mnv/ofYbc+H3brNzONZRp266tL2L2E3e8U7NaXsPtdgd0Txectht3r+lzY/Spw/TZC6CVYflNgeU1bECwbPxJYri0ClmtLsLwEy0uwPBMsG/PBsnEz0w6mwXJ1+Y16CZbfLbBsLMHyuwKWJ4rP/wUsq+ljkaQuei3ikqDwS+lYe9c7e21d2Puiqm2279pRMIu9d0nCkhrIPhfniVLUmbrvA4Ti70sLv+/uOPS0XWz15oaxblh2pWZp1SpZN7BlVDSbWDWLaEe1PmSNNMqfP3ETA8DZ/PFQsUnATF49feh1gOlxQWsywEKRP4aCSEWPxbcdnwU3eJuMfknKYUI5lLj5Bn8WLX+I8aG5qksCCKhZ62rOzbigBPK/Enhuxxk4BV9IaXHVyRuBfR8OJbAsuoPQ8PbIBcDejAUo1f1fQDOTTwqLWJPHCCp8os+f8TLn+CQo6phmaGTdsirlNdI3yquVtY1yrWqslo8sHZMNo6qv1Vb5I+DIONQzh5wXnESNNyz9Lz7mfwE+zLKpGzQAAA==</t>
         </r>
       </text>
     </comment>
@@ -418,17 +418,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Value Added in Industry</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>Govt Revenue - Tax ; Individual Income</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Govt Revenue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Value Added in Industry</t>
         </is>
       </c>
     </row>
@@ -494,17 +494,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>LKR mn</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>RMB mn</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>LKR mn</t>
         </is>
       </c>
     </row>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B8" s="3">
+        <v>310902601</v>
+      </c>
+      <c r="C8" s="3">
         <v>310901701</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>310901801</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310902601</v>
       </c>
     </row>
     <row r="9">
@@ -576,17 +576,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>SR4825076</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>SR4825055</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>SR4825071</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825076</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" s="4">
+        <v>31017</v>
+      </c>
+      <c r="C12" s="4">
         <v>36130</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>18598</v>
-      </c>
-      <c r="D12" s="4">
-        <v>31017</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" s="4">
+        <v>39052</v>
+      </c>
+      <c r="C13" s="4">
         <v>40878</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>41244</v>
-      </c>
-      <c r="D13" s="4">
-        <v>39052</v>
       </c>
     </row>
     <row r="14">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" s="2">
+        <v>201892.7</v>
+      </c>
+      <c r="C17" s="2">
         <v>1319.535</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>4951998.2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>201892.7</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" s="2">
+        <v>4866077434.233333</v>
+      </c>
+      <c r="C18" s="2">
         <v>187156.59805</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>8870140225312.178</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4866077434.233333</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" s="2">
+        <v>69757.27513480821</v>
+      </c>
+      <c r="C19" s="2">
         <v>432.6159937519648</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>2978278.063799983</v>
-      </c>
-      <c r="D19" s="2">
-        <v>69757.27513480821</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.01561590289697475</v>
+        <v>0.5012749293714148</v>
       </c>
       <c r="C20" s="2">
-        <v>0.5088159326089573</v>
+        <v>0.0156159028969747</v>
       </c>
       <c r="D20" s="2">
-        <v>0.5012749293714148</v>
+        <v>0.5088159326089575</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-1.075751539480831</v>
+        <v>-0.7795762174608876</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.4977563153662574</v>
+        <v>-1.075751539480832</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.7795762174608876</v>
+        <v>-0.497756315366257</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" s="2">
+        <v>0.3455165795237183</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.3278548835400083</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>0.6014295529832752</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.3455165795237183</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" s="2">
+        <v>112011</v>
+      </c>
+      <c r="C23" s="2">
         <v>727.63</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>866666</v>
-      </c>
-      <c r="D23" s="2">
-        <v>112011</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" s="2">
+        <v>323560</v>
+      </c>
+      <c r="C24" s="2">
         <v>2026.83</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>10374001</v>
-      </c>
-      <c r="D24" s="2">
-        <v>323560</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" s="2">
+        <v>189310.5</v>
+      </c>
+      <c r="C25" s="2">
         <v>1359.255</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>4504099</v>
-      </c>
-      <c r="D25" s="2">
-        <v>189310.5</v>
       </c>
     </row>
     <row r="26">
@@ -842,76 +842,76 @@
       <c r="A27" s="7">
         <v>35765</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="8">
+        <v>112011</v>
+      </c>
       <c r="C27" s="8"/>
-      <c r="D27" s="8">
-        <v>112011</v>
-      </c>
+      <c r="D27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
         <v>36130</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="8">
+        <v>129477</v>
+      </c>
       <c r="C28" s="8"/>
-      <c r="D28" s="8">
-        <v>129477</v>
-      </c>
+      <c r="D28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
         <v>36495</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="8">
+        <v>143412</v>
+      </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8">
-        <v>143412</v>
-      </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
         <v>36861</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="8">
+        <v>167493</v>
+      </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="8">
-        <v>167493</v>
-      </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
         <v>37226</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8">
+        <v>179558</v>
+      </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="8">
-        <v>179558</v>
-      </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
         <v>37591</v>
       </c>
       <c r="B32" s="8">
+        <v>199063</v>
+      </c>
+      <c r="C32" s="8">
         <v>767.73</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
-        <v>199063</v>
-      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
         <v>37956</v>
       </c>
       <c r="B33" s="8">
+        <v>221016</v>
+      </c>
+      <c r="C33" s="8">
         <v>727.63</v>
       </c>
-      <c r="C33" s="8">
+      <c r="D33" s="8">
         <v>2171525</v>
-      </c>
-      <c r="D33" s="8">
-        <v>221016</v>
       </c>
     </row>
     <row r="34">
@@ -919,13 +919,13 @@
         <v>38322</v>
       </c>
       <c r="B34" s="8">
+        <v>256572</v>
+      </c>
+      <c r="C34" s="8">
         <v>922.91</v>
       </c>
-      <c r="C34" s="8">
+      <c r="D34" s="8">
         <v>2639647</v>
-      </c>
-      <c r="D34" s="8">
-        <v>256572</v>
       </c>
     </row>
     <row r="35">
@@ -933,13 +933,13 @@
         <v>38687</v>
       </c>
       <c r="B35" s="8">
+        <v>286765</v>
+      </c>
+      <c r="C35" s="8">
         <v>1126.49</v>
       </c>
-      <c r="C35" s="8">
+      <c r="D35" s="8">
         <v>3164929</v>
-      </c>
-      <c r="D35" s="8">
-        <v>286765</v>
       </c>
     </row>
     <row r="36">
@@ -947,142 +947,87 @@
         <v>39052</v>
       </c>
       <c r="B36" s="8">
+        <v>323560</v>
+      </c>
+      <c r="C36" s="8">
         <v>1235.8</v>
       </c>
-      <c r="C36" s="8">
+      <c r="D36" s="8">
         <v>3876020</v>
-      </c>
-      <c r="D36" s="8">
-        <v>323560</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="7">
         <v>39417</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
         <v>1482.71</v>
       </c>
-      <c r="C37" s="8">
+      <c r="D37" s="8">
         <v>5132178</v>
       </c>
-      <c r="D37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="7">
         <v>39783</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
         <v>1598.61</v>
       </c>
-      <c r="C38" s="8">
+      <c r="D38" s="8">
         <v>6133035</v>
       </c>
-      <c r="D38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="7">
         <v>40148</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
         <v>1639.54</v>
       </c>
-      <c r="C39" s="8">
+      <c r="D39" s="8">
         <v>6851830</v>
       </c>
-      <c r="D39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="7">
         <v>40513</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
         <v>2026.83</v>
       </c>
-      <c r="C40" s="8">
+      <c r="D40" s="8">
         <v>8310151</v>
       </c>
-      <c r="D40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
         <v>40878</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
         <v>1667.1</v>
       </c>
-      <c r="C41" s="8">
+      <c r="D41" s="8">
         <v>10374001</v>
       </c>
-      <c r="D41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="7">
         <v>41244</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8">
         <v>866666</v>
       </c>
-      <c r="D42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>42</EndRow>
-          <EndCol>4</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE68F4C4-778B-4348-A24B-2265122E71A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>